--- a/数据整理/stocks/A股/深证主板/000937-冀中能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000937-冀中能源.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.21</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.65</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.21</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.65</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>84.97</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.23</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004143</t>
+          <t>163110</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合C</t>
+          <t>申万菱信量化小盘股票(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -650,25 +710,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>163110</t>
+          <t>009726</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
+          <t>招商中证500等权重指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -678,25 +748,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009726</t>
+          <t>009727</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商中证500等权重指数增强A</t>
+          <t>招商中证500等权重指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.56</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.51</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009727</t>
+          <t>004143</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商中证500等权重指数增强C</t>
+          <t>招商盛合灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000937-冀中能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000937-冀中能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3770</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5389</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4681</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2677</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000937-冀中能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000937-冀中能源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1296,4 +1297,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000937-冀中能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000937-冀中能源.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.88</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1447,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="4">
@@ -1368,13 +1463,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000937-冀中能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000937-冀中能源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.88</v>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.15</v>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1479,13 +1566,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000937-冀中能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000937-冀中能源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1951,7 +1952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,17 +1963,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1982,14 +2003,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.59</v>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6104</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1998,14 +2041,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2014,14 +2079,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.88</v>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2030,14 +2117,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="6">
@@ -2046,13 +2255,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000937-冀中能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000937-冀中能源.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009608</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0599</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009609</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004142</t>
+          <t>004814</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合A</t>
+          <t>中欧红利优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>17.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>91.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0766</t>
+          <t>0.6104</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>163110</t>
+          <t>004815</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
+          <t>中欧红利优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>91.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0471</t>
+          <t>0.1955</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009726</t>
+          <t>011269</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商中证500等权重指数增强A</t>
+          <t>中银证券优势制造股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>96.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0201</t>
+          <t>0.0654</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -753,74 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009727</t>
+          <t>011270</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商中证500等权重指数增强C</t>
+          <t>中银证券优势制造股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>96.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004143</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.97</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,7 +817,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -885,22 +847,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>002601</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>中银证券价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.16</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -910,11 +872,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3770</t>
+          <t>0.1667</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -923,36 +885,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002601</t>
+          <t>561550</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银证券价值精选灵活配置混合</t>
+          <t>华泰柏瑞中证500增强策略ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>98.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5389</t>
+          <t>0.1084</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -961,36 +923,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519029</t>
+          <t>011269</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏稳增混合</t>
+          <t>中银证券优势制造股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4681</t>
+          <t>0.0910</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -999,36 +961,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011269</t>
+          <t>003655</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券优势制造股票型证券投资基金A</t>
+          <t>信达澳银新财富灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>11.86</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>25.86</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2677</t>
+          <t>0.0771</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1037,36 +999,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009613</t>
+          <t>008997</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上银中证500指数增强A</t>
+          <t>同泰竞争优势混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0595</t>
+          <t>0.0410</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1075,36 +1037,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161715</t>
+          <t>008998</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商中证大宗商品股票指数（LOF）</t>
+          <t>同泰竞争优势混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0593</t>
+          <t>0.0293</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1113,36 +1075,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009614</t>
+          <t>011934</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上银中证500指数增强C</t>
+          <t>中航量化阿尔法六个月持有股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>90.35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0418</t>
+          <t>0.0284</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1151,36 +1113,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004945</t>
+          <t>011935</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长信中证500指数增强</t>
+          <t>中航量化阿尔法六个月持有股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>90.35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0388</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1199,26 +1161,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0231</t>
+          <t>0.0138</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1227,32 +1189,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004913</t>
+          <t>004192</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合A</t>
+          <t>招商中证500指数增强A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>44.22</t>
+          <t>94.32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1265,36 +1227,112 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004914</t>
+          <t>004193</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合C</t>
+          <t>招商中证500指数增强C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>44.22</t>
+          <t>94.32</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +1440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1423,7 +1461,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1453,22 +1491,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002601</t>
+          <t>161724</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券价值精选灵活配置混合</t>
+          <t>招商中证煤炭等权指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>28.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>93.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1478,11 +1516,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1667</t>
+          <t>1.3770</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1491,36 +1529,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>561550</t>
+          <t>002601</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证500增强策略ETF</t>
+          <t>中银证券价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.93</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1084</t>
+          <t>0.5389</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1529,36 +1567,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011269</t>
+          <t>519029</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银证券优势制造股票型证券投资基金A</t>
+          <t>华夏稳增混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>12.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0910</t>
+          <t>0.4681</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1567,36 +1605,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003655</t>
+          <t>011269</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信达澳银新财富灵活配置混合</t>
+          <t>中银证券优势制造股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.86</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25.86</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0771</t>
+          <t>0.2677</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1605,36 +1643,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008997</t>
+          <t>009613</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>同泰竞争优势混合A</t>
+          <t>上银中证500指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0410</t>
+          <t>0.0595</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1643,36 +1681,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008998</t>
+          <t>161715</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>同泰竞争优势混合C</t>
+          <t>招商中证大宗商品股票指数（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0293</t>
+          <t>0.0593</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1681,36 +1719,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011934</t>
+          <t>009614</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中航量化阿尔法六个月持有股票A</t>
+          <t>上银中证500指数增强C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0284</t>
+          <t>0.0418</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1719,36 +1757,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011935</t>
+          <t>004945</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中航量化阿尔法六个月持有股票C</t>
+          <t>长信中证500指数增强</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0210</t>
+          <t>0.0388</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1767,26 +1805,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0138</t>
+          <t>0.0231</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1795,32 +1833,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004192</t>
+          <t>004913</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商中证500指数增强A</t>
+          <t>中银证券聚瑞混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>44.22</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1833,112 +1871,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004193</t>
+          <t>004914</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商中证500指数增强C</t>
+          <t>中银证券聚瑞混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>44.22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003586</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003587</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1952,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1973,7 +1935,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2003,36 +1965,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004814</t>
+          <t>004142</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合A</t>
+          <t>招商盛合灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.05</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>84.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6104</t>
+          <t>0.0766</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2041,36 +2003,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004815</t>
+          <t>163110</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合C</t>
+          <t>申万菱信量化小盘股票(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>90.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1955</t>
+          <t>0.0471</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2079,36 +2041,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011269</t>
+          <t>009726</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银证券优势制造股票型证券投资基金A</t>
+          <t>招商中证500等权重指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.07</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0654</t>
+          <t>0.0201</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2117,36 +2079,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011270</t>
+          <t>009727</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券优势制造股票型证券投资基金C</t>
+          <t>招商中证500等权重指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.07</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2160,128 +2160,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.89</v>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.07000000000000001</v>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000937-冀中能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000937-冀中能源.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>0.89</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.59</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2.88</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -583,6 +600,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2662</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -790,7 +1585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1340,7 +2135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1434,7 +2229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1908,7 +2703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2154,7 +2949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000937-冀中能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000937-冀中能源.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.02</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>0.89</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.59</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2.88</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5379</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016347</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1377,7 +1792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,7 +2000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2135,7 +2550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2229,7 +2644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2703,7 +3118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2949,7 +3364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
